--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-21T19:41:46+00:00</t>
+    <t>2022-10-24T13:30:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24T13:30:48+00:00</t>
+    <t>2022-10-25T13:43:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T13:43:34+00:00</t>
+    <t>2022-11-17T10:59:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T10:59:49+00:00</t>
+    <t>2022-11-17T12:13:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T12:13:42+00:00</t>
+    <t>2022-11-24T13:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$8</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="122">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T13:50:37+00:00</t>
+    <t>2023-01-05T08:20:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -700,7 +703,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ8"/>
+  <dimension ref="A1:AK8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -710,41 +713,41 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="50.5078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.62109375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="39.953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="19.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="60.62109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="39.953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="19.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="70.30078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="70.30078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -856,36 +859,39 @@
       <c r="AJ1" t="s" s="1">
         <v>68</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>69</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>73</v>
@@ -893,98 +899,101 @@
       <c r="M2" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>69</v>
-      </c>
+      <c r="N2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>70</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>80</v>
@@ -992,99 +1001,102 @@
       <c r="L3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>69</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>83</v>
+        <v>70</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>84</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>70</v>
-      </c>
+      <c r="B4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
         <v>71</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>87</v>
@@ -1095,101 +1107,104 @@
       <c r="M4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>69</v>
-      </c>
+      <c r="N4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AB4" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>95</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s" s="2">
         <v>98</v>
@@ -1197,64 +1212,64 @@
       <c r="M5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>69</v>
-      </c>
+      <c r="N5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>101</v>
@@ -1262,33 +1277,36 @@
       <c r="AJ5" t="s" s="2">
         <v>102</v>
       </c>
+      <c r="AK5" t="s" s="2">
+        <v>103</v>
+      </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>105</v>
@@ -1299,31 +1317,31 @@
       <c r="M6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>69</v>
-      </c>
+      <c r="N6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="X6" t="s" s="2">
         <v>109</v>
@@ -1332,65 +1350,68 @@
         <v>110</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>102</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="AK6" t="s" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>113</v>
@@ -1401,101 +1422,104 @@
       <c r="M7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>69</v>
-      </c>
+      <c r="N7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>116</v>
+        <v>102</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>117</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="L8" t="s" s="2">
         <v>119</v>
@@ -1503,74 +1527,77 @@
       <c r="M8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>69</v>
-      </c>
+      <c r="N8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>102</v>
       </c>
+      <c r="AK8" t="s" s="2">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ8">
+  <autoFilter ref="A1:AK8">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="123">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-05T08:20:17+00:00</t>
+    <t>2023-01-24T07:53:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -235,6 +235,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>A reference from one resource to another</t>
@@ -891,16 +895,16 @@
         <v>70</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -959,21 +963,21 @@
         <v>72</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -984,7 +988,7 @@
         <v>71</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>70</v>
@@ -996,13 +1000,13 @@
         <v>70</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1053,13 +1057,13 @@
         <v>70</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>70</v>
@@ -1068,19 +1072,19 @@
         <v>70</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -1099,16 +1103,16 @@
         <v>70</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1146,19 +1150,19 @@
         <v>70</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>71</v>
@@ -1170,18 +1174,18 @@
         <v>70</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1192,28 +1196,28 @@
         <v>71</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>70</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1263,30 +1267,30 @@
         <v>70</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1297,7 +1301,7 @@
         <v>71</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>70</v>
@@ -1306,19 +1310,19 @@
         <v>70</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1344,13 +1348,13 @@
         <v>70</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>70</v>
@@ -1368,30 +1372,30 @@
         <v>70</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1402,28 +1406,28 @@
         <v>71</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>70</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1473,30 +1477,30 @@
         <v>70</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1507,7 +1511,7 @@
         <v>71</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>70</v>
@@ -1516,19 +1520,19 @@
         <v>70</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1578,22 +1582,22 @@
         <v>70</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>70</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-24T07:53:27+00:00</t>
+    <t>2023-01-24T08:49:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-24T08:49:19+00:00</t>
+    <t>2023-02-02T07:53:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T09:12:07+00:00</t>
+    <t>2023-02-10T09:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T09:22:00+00:00</t>
+    <t>2023-02-10T15:47:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T15:47:03+00:00</t>
+    <t>2023-02-21T10:12:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T10:12:27+00:00</t>
+    <t>2023-02-21T10:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T10:12:31+00:00</t>
+    <t>2023-02-21T11:12:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:12:28+00:00</t>
+    <t>2023-02-21T11:12:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:12:51+00:00</t>
+    <t>2023-02-22T15:46:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:46:17+00:00</t>
+    <t>2023-03-10T07:39:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T07:39:36+00:00</t>
+    <t>2023-03-17T13:10:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T13:10:55+00:00</t>
+    <t>2023-03-17T13:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T13:11:04+00:00</t>
+    <t>2023-04-19T13:59:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T13:59:03+00:00</t>
+    <t>2023-04-20T18:37:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T18:37:34+00:00</t>
+    <t>2023-04-20T18:38:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T18:38:40+00:00</t>
+    <t>2023-04-20T18:40:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T18:40:27+00:00</t>
+    <t>2023-04-20T19:18:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T19:18:44+00:00</t>
+    <t>2023-04-20T19:23:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T19:23:54+00:00</t>
+    <t>2023-04-20T19:43:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T19:43:11+00:00</t>
+    <t>2023-04-21T10:15:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T10:15:27+00:00</t>
+    <t>2023-04-21T14:28:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:28:50+00:00</t>
+    <t>2023-04-21T14:29:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:29:36+00:00</t>
+    <t>2023-04-21T14:42:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:42:15+00:00</t>
+    <t>2023-04-21T14:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:42:33+00:00</t>
+    <t>2023-04-21T14:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:55:14+00:00</t>
+    <t>2023-04-21T14:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T14:56:41+00:00</t>
+    <t>2023-04-25T13:57:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-25T13:57:38+00:00</t>
+    <t>2023-04-28T07:14:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T07:14:58+00:00</t>
+    <t>2023-04-28T10:20:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T10:20:31+00:00</t>
+    <t>2023-04-28T10:21:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T10:21:40+00:00</t>
+    <t>2023-05-15T08:38:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-15T08:38:34+00:00</t>
+    <t>2023-05-15T10:07:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-15T10:07:26+00:00</t>
+    <t>2023-05-15T10:09:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-15T10:09:56+00:00</t>
+    <t>2023-05-16T06:48:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-16T06:48:43+00:00</t>
+    <t>2023-06-06T07:33:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:33:19+00:00</t>
+    <t>2023-06-06T07:37:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:37:43+00:00</t>
+    <t>2023-06-06T07:38:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:38:08+00:00</t>
+    <t>2023-06-06T07:41:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:41:53+00:00</t>
+    <t>2023-06-06T07:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T07:45:21+00:00</t>
+    <t>2023-06-08T08:30:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T08:30:17+00:00</t>
+    <t>2023-06-08T08:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$7</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="86">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T08:31:26+00:00</t>
+    <t>2023-06-14T06:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,117 +115,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -521,10 +410,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -707,7 +596,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK8"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -718,890 +607,775 @@
   <cols>
     <col min="1" max="1" width="19.953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.62109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="39.953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="19.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="70.30078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="G1" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="N1" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="AJ1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>41</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>43</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>69</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>54</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="N5" t="s" s="2">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>104</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" hidden="true">
-      <c r="A8" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="O8" s="2"/>
-      <c r="P8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>104</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK8">
+  <autoFilter ref="A1:AK7">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1611,7 +1385,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI7">
+  <conditionalFormatting sqref="A2:AI6">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="87">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T06:47:29+00:00</t>
+    <t>2023-08-28T15:26:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -141,6 +141,10 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}be-inv-contained-or-logical-reference:A reference must refer to a contained resource or have a logical identifier {reference.empty().not() or identifier.empty().not()}</t>
   </si>
   <si>
     <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
@@ -740,18 +744,18 @@
         <v>40</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -762,7 +766,7 @@
         <v>34</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>33</v>
@@ -774,13 +778,13 @@
         <v>33</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -831,13 +835,13 @@
         <v>33</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>33</v>
@@ -846,19 +850,19 @@
         <v>33</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
@@ -877,16 +881,16 @@
         <v>33</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -924,19 +928,19 @@
         <v>33</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>34</v>
@@ -948,18 +952,18 @@
         <v>33</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -970,28 +974,28 @@
         <v>34</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>33</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1041,30 +1045,30 @@
         <v>33</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1075,7 +1079,7 @@
         <v>34</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>33</v>
@@ -1084,19 +1088,19 @@
         <v>33</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1122,13 +1126,13 @@
         <v>33</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>33</v>
@@ -1146,30 +1150,30 @@
         <v>33</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1180,28 +1184,28 @@
         <v>34</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>33</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1251,30 +1255,30 @@
         <v>33</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1285,7 +1289,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>33</v>
@@ -1294,19 +1298,19 @@
         <v>33</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1356,22 +1360,22 @@
         <v>33</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-28T15:26:36+00:00</t>
+    <t>2023-08-28T15:28:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-28T15:28:15+00:00</t>
+    <t>2023-09-01T06:47:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T06:47:50+00:00</t>
+    <t>2023-09-05T14:28:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T14:28:58+00:00</t>
+    <t>2023-09-29T14:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:04:57+00:00</t>
+    <t>2023-09-29T14:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:06:01+00:00</t>
+    <t>2023-09-29T14:14:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:14:49+00:00</t>
+    <t>2023-09-29T14:15:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$8</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="124">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T14:15:09+00:00</t>
+    <t>2024-03-15T09:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,6 +115,117 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -600,7 +711,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AK8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -611,775 +722,890 @@
   <cols>
     <col min="1" max="1" width="19.953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.62109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="39.953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="19.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="70.30078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>33</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>34</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>35</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AI1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>42</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>69</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>55</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>68</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>68</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" hidden="true">
+      <c r="A8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK7">
+  <autoFilter ref="A1:AK8">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1389,7 +1615,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI6">
+  <conditionalFormatting sqref="A2:AI7">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-contained-or-logical-reference.xlsx
+++ b/StructureDefinition-be-contained-or-logical-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T09:11:04+00:00</t>
+    <t>2024-03-15T09:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
